--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1273989.406308581</v>
+        <v>1271737.326597374</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283197</v>
+        <v>416855.1052283205</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>52.98455791795151</v>
+        <v>200.805213622945</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>264.8621687585381</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699578</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>72.08802744677264</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>221.7048515690723</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>160.2639896205466</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.152727013336493</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,64 +1294,64 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>54.45803047044437</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>127.1562738804004</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>103.2360561910023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.2950343703266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427696</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>40.96105405076426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520995</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.1185786361433</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.79222725775175</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3317,10 +3317,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2012.898941548399</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C2" t="n">
-        <v>1643.936424607987</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.670726001237</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524211</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548399</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.6824807009811</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>87.6824807009811</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>87.6824807009811</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>87.6824807009811</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>87.6824807009811</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>87.6824807009811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>87.6824807009811</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>377.0996507379417</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>87.6824807009811</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>87.6824807009811</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.6824807009811</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2201.719078084901</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1832.756561144489</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1474.490862537739</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1088.702609939495</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2588.318918149023</v>
       </c>
     </row>
     <row r="6">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902781</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779424</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955492</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976389</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723578</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4759,16 +4759,16 @@
         <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3053.432335337733</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3053.432335337733</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2722.369447994162</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539437</v>
+        <v>2722.369447994162</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539437</v>
+        <v>2348.903689733083</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.4564109463978</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5202280184909</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201677</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.1048757766375</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
@@ -5057,10 +5057,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2123.082773965825</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759938</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>95.584050252739</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270395</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703062</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -6008,13 +6008,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,7 +6023,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1166.195182806534</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.09054721822744</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>182.9484181982418</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>37.1260136526046</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194693</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>211.1765892730637</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.713401545794</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.0397529241855</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387903</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387903</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942247.3008387904</v>
+        <v>942247.3008387905</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387903</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942247.3008387905</v>
+        <v>942247.3008387904</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26320,37 +26320,37 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="F2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="G2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="K2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474469</v>
+        <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
         <v>291094.377253124</v>
@@ -26528,40 +26528,40 @@
         <v>291094.377253124</v>
       </c>
       <c r="E6" t="n">
-        <v>42926.27214087403</v>
+        <v>42891.53421543834</v>
       </c>
       <c r="F6" t="n">
-        <v>368338.7339482292</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="G6" t="n">
-        <v>368338.7339482292</v>
+        <v>368303.9960227934</v>
       </c>
       <c r="H6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="I6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="J6" t="n">
-        <v>150807.5315509516</v>
+        <v>150772.7936255159</v>
       </c>
       <c r="K6" t="n">
-        <v>368338.733948229</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="L6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="M6" t="n">
-        <v>283283.7060127173</v>
+        <v>283248.9680872814</v>
       </c>
       <c r="N6" t="n">
-        <v>368338.7339482292</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="O6" t="n">
-        <v>368338.733948229</v>
+        <v>368303.9960227933</v>
       </c>
       <c r="P6" t="n">
-        <v>368338.7339482291</v>
+        <v>368303.9960227933</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>328.9458121543103</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>75.3937597837284</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>142.0138769831733</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>72.66698746754814</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>30.43279175475573</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>43.65398051907351</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.0852116427171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94.15744254776799</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661466</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-3.109469020701095e-12</v>
       </c>
     </row>
     <row r="20">
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,31 +32318,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>732.482598761492</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394736</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
